--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevdo\Desktop\учеба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevdo\OneDrive\Документы\GitHub\MyRepos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB515AC-1042-4DBA-B54E-03BC017D4B0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4972E-22C8-4543-BB9C-C1A17D14E045}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>№</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>Проверка перехода в магазин</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>не пройден</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -409,38 +415,39 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -731,10 +738,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,9 +750,10 @@
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,166 +766,196 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="22">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="17"/>
+      <c r="D3" s="14"/>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="17"/>
+      <c r="D5" s="14"/>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="14"/>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="12"/>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="18"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>2</v>
       </c>
     </row>
@@ -928,8 +966,8 @@
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -938,8 +976,8 @@
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -948,8 +986,8 @@
       <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -958,8 +996,8 @@
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -968,8 +1006,8 @@
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -978,10 +1016,10 @@
       <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>2</v>
       </c>
     </row>
@@ -992,8 +1030,8 @@
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1002,8 +1040,8 @@
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1012,8 +1050,8 @@
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1022,8 +1060,8 @@
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1032,8 +1070,8 @@
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1042,8 +1080,8 @@
       <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1052,10 +1090,10 @@
       <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <v>8</v>
       </c>
     </row>
@@ -1066,8 +1104,8 @@
       <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1076,10 +1114,10 @@
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1090,8 +1128,8 @@
       <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1100,8 +1138,8 @@
       <c r="B33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1110,8 +1148,8 @@
       <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1120,8 +1158,8 @@
       <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1130,8 +1168,8 @@
       <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -1140,8 +1178,8 @@
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1150,8 +1188,8 @@
       <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -1188,10 +1226,10 @@
       <c r="B41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1202,8 +1240,8 @@
       <c r="B42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -1254,10 +1292,10 @@
       <c r="B46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1268,8 +1306,8 @@
       <c r="B47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -1278,8 +1316,8 @@
       <c r="B48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -1288,8 +1326,8 @@
       <c r="B49" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -1312,10 +1350,10 @@
       <c r="B51" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1326,8 +1364,8 @@
       <c r="B52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -1336,8 +1374,8 @@
       <c r="B53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="16"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -1346,10 +1384,10 @@
       <c r="B54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1360,8 +1398,8 @@
       <c r="B55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="16"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -1370,8 +1408,8 @@
       <c r="B56" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -1389,15 +1427,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="D54:D56"/>
     <mergeCell ref="D29:D30"/>
@@ -1409,6 +1438,15 @@
     <mergeCell ref="D46:D49"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
